--- a/Packages/cn.etetet.map/Luban/Config/Datas/MapUnit.xlsx
+++ b/Packages/cn.etetet.map/Luban/Config/Datas/MapUnit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Datas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.map/Luban/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3296F4-B3B5-C84C-9569-4B00FC72E9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1B25F4-742F-6246-B4EA-A850234AB305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5020" yWindow="0" windowWidth="38400" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map1" sheetId="1" r:id="rId1"/>
@@ -276,14 +276,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,7 +563,7 @@
   <dimension ref="A1:AJ18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -614,38 +614,38 @@
         <v>30</v>
       </c>
       <c r="F1" s="4"/>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
     </row>
     <row r="2" spans="1:36">
       <c r="A2" t="s">
@@ -662,38 +662,38 @@
         <v>31</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
     </row>
     <row r="3" spans="1:36">
       <c r="A3" t="s">
@@ -704,38 +704,38 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
     </row>
     <row r="4" spans="1:36">
       <c r="A4" t="s">
@@ -760,54 +760,54 @@
         <v>11</v>
       </c>
       <c r="H4" s="7"/>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="10"/>
+      <c r="J4" s="8"/>
       <c r="K4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="7"/>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="10" t="s">
+      <c r="N4" s="9"/>
+      <c r="O4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="10"/>
+      <c r="P4" s="8"/>
       <c r="Q4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="R4" s="7"/>
-      <c r="S4" s="10" t="s">
+      <c r="S4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="10"/>
+      <c r="T4" s="8"/>
       <c r="U4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="V4" s="7"/>
-      <c r="W4" s="10" t="s">
+      <c r="W4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="X4" s="10"/>
+      <c r="X4" s="8"/>
       <c r="Y4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Z4" s="7"/>
-      <c r="AA4" s="10" t="s">
+      <c r="AA4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="10"/>
+      <c r="AB4" s="8"/>
       <c r="AC4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="AD4" s="7"/>
-      <c r="AE4" s="10" t="s">
+      <c r="AE4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AF4" s="10"/>
+      <c r="AF4" s="8"/>
       <c r="AG4" s="7" t="s">
         <v>23</v>
       </c>
@@ -891,7 +891,7 @@
         <v>1009</v>
       </c>
       <c r="Z5" s="3">
-        <v>300003</v>
+        <v>200121</v>
       </c>
       <c r="AA5" s="3">
         <v>10021</v>
@@ -998,7 +998,7 @@
         <v>1009</v>
       </c>
       <c r="Z7" s="3">
-        <v>300000</v>
+        <v>300001</v>
       </c>
       <c r="AA7" s="3">
         <v>10021</v>
@@ -1105,7 +1105,7 @@
         <v>1009</v>
       </c>
       <c r="Z8" s="3">
-        <v>300000</v>
+        <v>300001</v>
       </c>
       <c r="AA8" s="3">
         <v>10021</v>
@@ -1212,7 +1212,7 @@
         <v>1009</v>
       </c>
       <c r="Z9" s="3">
-        <v>300000</v>
+        <v>300001</v>
       </c>
       <c r="AA9" s="3">
         <v>10021</v>
@@ -1319,7 +1319,7 @@
         <v>1009</v>
       </c>
       <c r="Z10" s="3">
-        <v>300000</v>
+        <v>300001</v>
       </c>
       <c r="AA10" s="3">
         <v>10021</v>
@@ -1426,7 +1426,7 @@
         <v>1009</v>
       </c>
       <c r="Z11" s="3">
-        <v>300000</v>
+        <v>300001</v>
       </c>
       <c r="AA11" s="3">
         <v>10021</v>
@@ -1533,7 +1533,7 @@
         <v>1009</v>
       </c>
       <c r="Z12" s="3">
-        <v>300000</v>
+        <v>300001</v>
       </c>
       <c r="AA12" s="3">
         <v>10021</v>
@@ -1640,7 +1640,7 @@
         <v>1009</v>
       </c>
       <c r="Z13" s="3">
-        <v>300000</v>
+        <v>300001</v>
       </c>
       <c r="AA13" s="3">
         <v>10021</v>
@@ -1747,7 +1747,7 @@
         <v>1009</v>
       </c>
       <c r="Z14" s="3">
-        <v>300000</v>
+        <v>300001</v>
       </c>
       <c r="AA14" s="3">
         <v>10021</v>
@@ -1854,7 +1854,7 @@
         <v>1009</v>
       </c>
       <c r="Z15" s="3">
-        <v>300000</v>
+        <v>300001</v>
       </c>
       <c r="AA15" s="3">
         <v>10021</v>
@@ -1961,7 +1961,7 @@
         <v>1009</v>
       </c>
       <c r="Z16" s="3">
-        <v>300000</v>
+        <v>300001</v>
       </c>
       <c r="AA16" s="3">
         <v>10021</v>
@@ -2070,11 +2070,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="M4:N4"/>
     <mergeCell ref="G1:AJ1"/>
     <mergeCell ref="G2:AJ2"/>
     <mergeCell ref="G3:AJ3"/>
@@ -2088,6 +2083,11 @@
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="M4:N4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2100,7 +2100,7 @@
   <dimension ref="A1:AJ18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -2151,38 +2151,38 @@
         <v>30</v>
       </c>
       <c r="F1" s="4"/>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
     </row>
     <row r="2" spans="1:36">
       <c r="A2" t="s">
@@ -2199,38 +2199,38 @@
         <v>31</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
     </row>
     <row r="3" spans="1:36">
       <c r="A3" t="s">
@@ -2241,38 +2241,38 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
     </row>
     <row r="4" spans="1:36">
       <c r="A4" t="s">
@@ -2297,54 +2297,54 @@
         <v>11</v>
       </c>
       <c r="H4" s="7"/>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="10"/>
+      <c r="J4" s="8"/>
       <c r="K4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="7"/>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="10" t="s">
+      <c r="N4" s="9"/>
+      <c r="O4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="10"/>
+      <c r="P4" s="8"/>
       <c r="Q4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="R4" s="7"/>
-      <c r="S4" s="10" t="s">
+      <c r="S4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="10"/>
+      <c r="T4" s="8"/>
       <c r="U4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="V4" s="7"/>
-      <c r="W4" s="10" t="s">
+      <c r="W4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="X4" s="10"/>
+      <c r="X4" s="8"/>
       <c r="Y4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Z4" s="7"/>
-      <c r="AA4" s="10" t="s">
+      <c r="AA4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="10"/>
+      <c r="AB4" s="8"/>
       <c r="AC4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="AD4" s="7"/>
-      <c r="AE4" s="10" t="s">
+      <c r="AE4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AF4" s="10"/>
+      <c r="AF4" s="8"/>
       <c r="AG4" s="7" t="s">
         <v>23</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>1009</v>
       </c>
       <c r="Z5" s="3">
-        <v>300000</v>
+        <v>300001</v>
       </c>
       <c r="AA5" s="3">
         <v>10021</v>
@@ -2535,7 +2535,7 @@
         <v>1009</v>
       </c>
       <c r="Z6" s="3">
-        <v>300000</v>
+        <v>300001</v>
       </c>
       <c r="AA6" s="3">
         <v>10021</v>
@@ -2642,7 +2642,7 @@
         <v>1009</v>
       </c>
       <c r="Z7" s="3">
-        <v>300000</v>
+        <v>300001</v>
       </c>
       <c r="AA7" s="3">
         <v>10021</v>
@@ -2749,7 +2749,7 @@
         <v>1009</v>
       </c>
       <c r="Z8" s="3">
-        <v>300000</v>
+        <v>300001</v>
       </c>
       <c r="AA8" s="3">
         <v>10021</v>
@@ -2856,7 +2856,7 @@
         <v>1009</v>
       </c>
       <c r="Z9" s="3">
-        <v>300000</v>
+        <v>300001</v>
       </c>
       <c r="AA9" s="3">
         <v>10021</v>
@@ -2963,7 +2963,7 @@
         <v>1009</v>
       </c>
       <c r="Z10" s="3">
-        <v>300000</v>
+        <v>300001</v>
       </c>
       <c r="AA10" s="3">
         <v>10021</v>
@@ -3070,7 +3070,7 @@
         <v>1009</v>
       </c>
       <c r="Z11" s="3">
-        <v>300000</v>
+        <v>300001</v>
       </c>
       <c r="AA11" s="3">
         <v>10021</v>
@@ -3177,7 +3177,7 @@
         <v>1009</v>
       </c>
       <c r="Z12" s="3">
-        <v>300000</v>
+        <v>300001</v>
       </c>
       <c r="AA12" s="3">
         <v>10021</v>
@@ -3284,7 +3284,7 @@
         <v>1009</v>
       </c>
       <c r="Z13" s="3">
-        <v>300000</v>
+        <v>300001</v>
       </c>
       <c r="AA13" s="3">
         <v>10021</v>
@@ -3391,7 +3391,7 @@
         <v>1009</v>
       </c>
       <c r="Z14" s="3">
-        <v>300000</v>
+        <v>300001</v>
       </c>
       <c r="AA14" s="3">
         <v>10021</v>
@@ -3776,6 +3776,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="G1:AJ1"/>
@@ -3792,8 +3794,6 @@
     <mergeCell ref="AI4:AJ4"/>
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AA4:AB4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Packages/cn.etetet.map/Luban/Config/Datas/MapUnit.xlsx
+++ b/Packages/cn.etetet.map/Luban/Config/Datas/MapUnit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.map/Luban/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1B25F4-742F-6246-B4EA-A850234AB305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F51F73E-9DD1-C747-8FB8-B5BFE04E5681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5020" yWindow="0" windowWidth="38400" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map1" sheetId="1" r:id="rId1"/>
@@ -276,14 +276,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -614,38 +614,38 @@
         <v>30</v>
       </c>
       <c r="F1" s="4"/>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
     </row>
     <row r="2" spans="1:36">
       <c r="A2" t="s">
@@ -662,38 +662,38 @@
         <v>31</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9"/>
     </row>
     <row r="3" spans="1:36">
       <c r="A3" t="s">
@@ -704,38 +704,38 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
     </row>
     <row r="4" spans="1:36">
       <c r="A4" t="s">
@@ -760,54 +760,54 @@
         <v>11</v>
       </c>
       <c r="H4" s="7"/>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="8"/>
+      <c r="J4" s="10"/>
       <c r="K4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="7"/>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="8" t="s">
+      <c r="N4" s="8"/>
+      <c r="O4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="8"/>
+      <c r="P4" s="10"/>
       <c r="Q4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="R4" s="7"/>
-      <c r="S4" s="8" t="s">
+      <c r="S4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="8"/>
+      <c r="T4" s="10"/>
       <c r="U4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="V4" s="7"/>
-      <c r="W4" s="8" t="s">
+      <c r="W4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="X4" s="8"/>
+      <c r="X4" s="10"/>
       <c r="Y4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Z4" s="7"/>
-      <c r="AA4" s="8" t="s">
+      <c r="AA4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="8"/>
+      <c r="AB4" s="10"/>
       <c r="AC4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="AD4" s="7"/>
-      <c r="AE4" s="8" t="s">
+      <c r="AE4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AF4" s="8"/>
+      <c r="AF4" s="10"/>
       <c r="AG4" s="7" t="s">
         <v>23</v>
       </c>
@@ -2070,6 +2070,10 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="M4:N4"/>
     <mergeCell ref="G1:AJ1"/>
     <mergeCell ref="G2:AJ2"/>
     <mergeCell ref="G3:AJ3"/>
@@ -2084,10 +2088,6 @@
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="M4:N4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2099,8 +2099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B206C8A-C7E3-014D-81BB-4A66DD302239}">
   <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -2151,38 +2151,38 @@
         <v>30</v>
       </c>
       <c r="F1" s="4"/>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
     </row>
     <row r="2" spans="1:36">
       <c r="A2" t="s">
@@ -2199,38 +2199,38 @@
         <v>31</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9"/>
     </row>
     <row r="3" spans="1:36">
       <c r="A3" t="s">
@@ -2241,38 +2241,38 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
     </row>
     <row r="4" spans="1:36">
       <c r="A4" t="s">
@@ -2297,54 +2297,54 @@
         <v>11</v>
       </c>
       <c r="H4" s="7"/>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="8"/>
+      <c r="J4" s="10"/>
       <c r="K4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="7"/>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="8" t="s">
+      <c r="N4" s="8"/>
+      <c r="O4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="8"/>
+      <c r="P4" s="10"/>
       <c r="Q4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="R4" s="7"/>
-      <c r="S4" s="8" t="s">
+      <c r="S4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="8"/>
+      <c r="T4" s="10"/>
       <c r="U4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="V4" s="7"/>
-      <c r="W4" s="8" t="s">
+      <c r="W4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="X4" s="8"/>
+      <c r="X4" s="10"/>
       <c r="Y4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Z4" s="7"/>
-      <c r="AA4" s="8" t="s">
+      <c r="AA4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="8"/>
+      <c r="AB4" s="10"/>
       <c r="AC4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="AD4" s="7"/>
-      <c r="AE4" s="8" t="s">
+      <c r="AE4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AF4" s="8"/>
+      <c r="AF4" s="10"/>
       <c r="AG4" s="7" t="s">
         <v>23</v>
       </c>
@@ -3494,8 +3494,12 @@
       <c r="X15" s="5">
         <v>30000</v>
       </c>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
+      <c r="Y15" s="3">
+        <v>1009</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
       <c r="AA15" s="3">
         <v>10021</v>
       </c>
@@ -3597,8 +3601,12 @@
       <c r="X16" s="5">
         <v>30000</v>
       </c>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
+      <c r="Y16" s="3">
+        <v>1009</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>0</v>
+      </c>
       <c r="AA16" s="3">
         <v>10021</v>
       </c>
@@ -3704,7 +3712,7 @@
         <v>1009</v>
       </c>
       <c r="Z17" s="3">
-        <v>300003</v>
+        <v>200131</v>
       </c>
       <c r="AA17" s="3">
         <v>10021</v>
@@ -3776,9 +3784,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="G1:AJ1"/>
     <mergeCell ref="G2:AJ2"/>
@@ -3794,6 +3799,9 @@
     <mergeCell ref="AI4:AJ4"/>
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
